--- a/data/trans_bre/IMC_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Habitat-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/IMC_R2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.06138224575448083</v>
+        <v>0.2893104662777625</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.217802774101789</v>
+        <v>-2.560341480163915</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.087706949400261</v>
+        <v>-5.471327661138446</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.584749851608725</v>
+        <v>-2.775022832744351</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.005200259570487639</v>
+        <v>0.02566344766697568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1017990884580993</v>
+        <v>-0.1234057982792434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2279522093407154</v>
+        <v>-0.2459165340364176</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1248610804417251</v>
+        <v>-0.1306814796709087</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.236871523755642</v>
+        <v>7.662182814364288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.333333730491013</v>
+        <v>6.625334376719873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.15673635849298</v>
+        <v>3.614021214902166</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.498015167111279</v>
+        <v>4.899840341008337</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7233498417075281</v>
+        <v>0.7817077331988165</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3602056663215384</v>
+        <v>0.3637395935254564</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2322747983092997</v>
+        <v>0.1952908316383102</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3464971635028372</v>
+        <v>0.307010166642367</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.087943823917265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-0.90198133754473</v>
+        <v>-0.9019813375447272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02913759617825892</v>
@@ -749,7 +749,7 @@
         <v>0.1158867960135985</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.05654074269331791</v>
+        <v>-0.05654074269331774</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-2.430078944784297</v>
+        <v>-3.020936594997107</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.612154671542627</v>
+        <v>1.636202288037482</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.328056188406059</v>
+        <v>-1.415769890142096</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.999450000736035</v>
+        <v>-4.004380827378202</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1522523339244093</v>
+        <v>-0.1802826989768595</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08634163720704871</v>
+        <v>0.08576839068110464</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.06827961069047209</v>
+        <v>-0.07194150836927046</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2246382687972731</v>
+        <v>-0.2281917938246508</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.009658285237743</v>
+        <v>3.825121817649687</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.927790196053316</v>
+        <v>9.126077693094311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.728385062275844</v>
+        <v>5.811289009424002</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.086053963145612</v>
+        <v>2.267351071503965</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.314387219059632</v>
+        <v>0.301165580997237</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5644901262037728</v>
+        <v>0.5880393432175676</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3422563095117926</v>
+        <v>0.3694201795379614</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1467390718462305</v>
+        <v>0.1603546064274205</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.1802139649172418</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.285179554655638</v>
+        <v>-1.285179554655641</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3125344610454664</v>
@@ -849,7 +849,7 @@
         <v>-0.01147240581671486</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.07355519784493014</v>
+        <v>-0.0735551978449303</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7739806897993582</v>
+        <v>-0.2506008985510513</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.572481389946832</v>
+        <v>1.798094992750547</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.185631079391134</v>
+        <v>-4.151394207975026</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.173888016616488</v>
+        <v>-4.861384110694115</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.07202954453460345</v>
+        <v>-0.02063925167308521</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09249710055718359</v>
+        <v>0.09794790156343529</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2399731388963307</v>
+        <v>-0.2371746836153718</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2690251341937175</v>
+        <v>-0.2442002326959566</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.711424553560841</v>
+        <v>6.973181163146235</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.775877569167738</v>
+        <v>9.647790107110673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.565385051527341</v>
+        <v>3.67952212766768</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.537004318112486</v>
+        <v>2.462947901587537</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7163082062319994</v>
+        <v>0.7747314604907708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7799519831348637</v>
+        <v>0.7660022241814424</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2532582205239208</v>
+        <v>0.2649173439956494</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1683862842304905</v>
+        <v>0.1497127027412451</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.326129874525487</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.639121954232722</v>
+        <v>1.63912195423272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3548995452852203</v>
@@ -949,7 +949,7 @@
         <v>0.2950413404034128</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.09802614019471806</v>
+        <v>0.09802614019471789</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5570192551302586</v>
+        <v>1.103139549060008</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7810293218156451</v>
+        <v>1.394441193618433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9141786989114463</v>
+        <v>0.9391303790824834</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.667459784813822</v>
+        <v>-1.655870037824262</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03952335287715703</v>
+        <v>0.08754372620289369</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04776260811505337</v>
+        <v>0.08354617218201266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05434212178875697</v>
+        <v>0.05652838889570519</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08972266603847465</v>
+        <v>-0.08629225031709396</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.726359444385801</v>
+        <v>6.996072703876743</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.137159161155035</v>
+        <v>8.406797470467792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.760276554881261</v>
+        <v>7.844856029696609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.568615996951586</v>
+        <v>4.810425233716272</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6666524219368437</v>
+        <v>0.7312038545448483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.638104242683468</v>
+        <v>0.630639888450845</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6005372520196222</v>
+        <v>0.6022068913068686</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.315475921136933</v>
+        <v>0.3290888535235408</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.040408889757528</v>
+        <v>1.108522235356534</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.412920654646788</v>
+        <v>2.55817953665653</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2256521792524214</v>
+        <v>-0.09439023212787739</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.475564734528094</v>
+        <v>-1.515306512162591</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.07588936386131169</v>
+        <v>0.08327168010072468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1342276826998527</v>
+        <v>0.1474310973507306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01203815569594798</v>
+        <v>-0.005194121065054586</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.08190563946634058</v>
+        <v>-0.08382820211868108</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.414473657045632</v>
+        <v>4.520782258611498</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.314441720366239</v>
+        <v>6.498190867356904</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.628859757813482</v>
+        <v>3.795761184498107</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.95720338232621</v>
+        <v>1.871859980577785</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3880958919058426</v>
+        <v>0.3955020132755133</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4038303048706812</v>
+        <v>0.4129541034181015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2288753262875701</v>
+        <v>0.2378638699364046</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1228808425071478</v>
+        <v>0.1184428995840541</v>
       </c>
     </row>
     <row r="19">
